--- a/실험계획과분석/실험계획 연습.xlsx
+++ b/실험계획과분석/실험계획 연습.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kki96\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366E152A-8F34-4922-9351-E687BDD8E9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD35DBD-4E05-4B97-B025-FE42DA1A95D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{DA693418-8173-4753-8479-C9487BDAAF83}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{DA693418-8173-4753-8479-C9487BDAAF83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="77">
   <si>
     <t>학교1</t>
   </si>
@@ -318,6 +319,26 @@
   </si>
   <si>
     <t>MSAB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내포요인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완전임의화 블록설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이원배치 분산분석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -780,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1255E58E-8A61-4731-986B-6D588C4940E2}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1205,6 +1226,11 @@
       <c r="G18">
         <f t="shared" si="0"/>
         <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1216,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6AC7F9-54CD-4062-9C40-F0D84A2A8EC3}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1644,9 +1670,14 @@
         <v>129.96</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F17" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1658,11 +1689,141 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AAFE25-5AB1-4D6D-BE05-CD01BA3544A9}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10.6</v>
+      </c>
+      <c r="C2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D2">
+        <f>B2-$B$7</f>
+        <v>0.35999999999999943</v>
+      </c>
+      <c r="E2">
+        <f>D2^2</f>
+        <v>0.1295999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C3">
+        <v>9.4</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="0">B3-$B$7</f>
+        <v>-0.4399999999999995</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="1">D3^2</f>
+        <v>0.19359999999999955</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>12.3</v>
+      </c>
+      <c r="C4">
+        <v>11.8</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>2.0600000000000005</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>4.2436000000000025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C5">
+        <v>9.1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-0.54000000000000092</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.29160000000000103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-1.4399999999999995</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>2.0735999999999986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <f>AVERAGE(B2:B6)</f>
+        <v>10.24</v>
+      </c>
+      <c r="C7">
+        <f>AVERAGE(C2:C6)</f>
+        <v>9.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4C45AC-FFCA-460C-B66E-BFF38337D5A6}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2143,6 +2304,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
